--- a/Results/PCA/SummaryLoadingsPC2_log2TMM_annotated.xlsx
+++ b/Results/PCA/SummaryLoadingsPC2_log2TMM_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellemeier/RocheAnalysisTask/Results/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A1C46F-D1FB-D849-86FD-D643D57F9FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA538B20-1869-B548-B41A-5FDDC7124B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{1C088300-52C1-7847-A162-5ABE888531B0}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14680" xr2:uid="{1C088300-52C1-7847-A162-5ABE888531B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1E6858A1-C82C-EE4B-818F-C7C43BA367A4}" name="SummaryLoadingsPC2_log2TMM" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/michellemeier/RocheAnalysisTask/Results/PCA/SummaryLoadingsPC2_log2TMM.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/michellemeier/RocheAnalysisTask/Results/PCA/SummaryLoadingsPC2_log2TMM.csv" thousands="'" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Loading</t>
   </si>
@@ -139,18 +139,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Cancer related</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>https://www.proteinatlas.org/ENSG00000012124-CD22</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Fc fragment of IgE receptor II</t>
   </si>
   <si>
@@ -163,16 +157,10 @@
     <t>https://www.proteinatlas.org/ENSG00000117322-CR2</t>
   </si>
   <si>
-    <t>yes (breast)</t>
-  </si>
-  <si>
     <t>C-X-C motif chemokine ligand 13</t>
   </si>
   <si>
     <t>https://www.proteinatlas.org/ENSG00000156234-CXCL13</t>
-  </si>
-  <si>
-    <t>yes (renal, ovarian, endometrial, colorectal)</t>
   </si>
   <si>
     <t>Membrane spanning 4-domains A1</t>
@@ -215,6 +203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -253,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8627195-C55C-2F46-A986-9B56FFA06F68}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,9 +579,10 @@
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,15 +601,12 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-0.228545429343747</v>
       </c>
       <c r="C2" t="s">
@@ -629,20 +619,17 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-0.21005201841849</v>
       </c>
       <c r="C3" t="s">
@@ -655,20 +642,17 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>-0.20741599622953599</v>
       </c>
       <c r="C4" t="s">
@@ -681,20 +665,17 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>-0.203443575553474</v>
       </c>
       <c r="C5" t="s">
@@ -707,20 +688,17 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>-0.190261171479192</v>
       </c>
       <c r="C6" t="s">
@@ -733,20 +711,17 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>-0.18738890051382001</v>
       </c>
       <c r="C7" t="s">
@@ -759,20 +734,17 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>-0.18155782819546101</v>
       </c>
       <c r="C8" t="s">
@@ -785,20 +757,17 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>-0.17983467296594399</v>
       </c>
       <c r="C9" t="s">
@@ -811,20 +780,17 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-0.17799052298551099</v>
       </c>
       <c r="C10" t="s">
@@ -837,20 +803,17 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-0.17323380707198499</v>
       </c>
       <c r="C11" t="s">
@@ -863,10 +826,10 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
